--- a/src/Prototypes/hmi/AI/bio_master_B.xlsx
+++ b/src/Prototypes/hmi/AI/bio_master_B.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo-HMI\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo\Project-Echo\src\Prototypes\hmi\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38B1DE-F6B8-4A0F-9CBC-D84C38B1B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8ED0A-4755-4393-9A07-0719FC949434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="4270" windowWidth="24300" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2330" yWindow="3760" windowWidth="25520" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_master_D" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
   <si>
     <t>Animal</t>
   </si>
@@ -246,72 +249,6 @@
     <t>GryllotalpidaeÂ sp.</t>
   </si>
   <si>
-    <t>Gymnorhina tibicen</t>
-  </si>
-  <si>
-    <t>Haliastur sphenurus</t>
-  </si>
-  <si>
-    <t>Henicopsaltria eydouxii</t>
-  </si>
-  <si>
-    <t>Heteroscenes pallidus</t>
-  </si>
-  <si>
-    <t>Hieraaetus morphnoides</t>
-  </si>
-  <si>
-    <t>Himantopus himantopus</t>
-  </si>
-  <si>
-    <t>Hirundo neoxena</t>
-  </si>
-  <si>
-    <t>Hylacola pyrrhopygia</t>
-  </si>
-  <si>
-    <t>Irediparra gallinacea</t>
-  </si>
-  <si>
-    <t>Iridomyrmex purpureus</t>
-  </si>
-  <si>
-    <t>Lalage leucomela</t>
-  </si>
-  <si>
-    <t>Lalage tricolor</t>
-  </si>
-  <si>
-    <t>Lathamus discolor</t>
-  </si>
-  <si>
-    <t>Leucosarcia melanoleuca</t>
-  </si>
-  <si>
-    <t>Lichenostomus melanops</t>
-  </si>
-  <si>
-    <t>Lichmera indistincta</t>
-  </si>
-  <si>
-    <t>Limnodynastes dumerilii</t>
-  </si>
-  <si>
-    <t>Limnodynastes peronii</t>
-  </si>
-  <si>
-    <t>Limnodynastes tasmaniensis</t>
-  </si>
-  <si>
-    <t>Litoria caerulea</t>
-  </si>
-  <si>
-    <t>Litoria gracilenta</t>
-  </si>
-  <si>
-    <t>Litoria inermis</t>
-  </si>
-  <si>
     <t>Bio Prompt</t>
   </si>
   <si>
@@ -498,72 +435,6 @@
     <t>A photo realistic images of the animal, GryllotalpidaeÂ sp. in it's natural habitat</t>
   </si>
   <si>
-    <t>A photo realistic images of the animal, Gymnorhina tibicen in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Haliastur sphenurus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Henicopsaltria eydouxii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Heteroscenes pallidus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Hieraaetus morphnoides in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Himantopus himantopus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Hirundo neoxena in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Hylacola pyrrhopygia in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Irediparra gallinacea in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Iridomyrmex purpureus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lalage leucomela in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lalage tricolor in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lathamus discolor in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Leucosarcia melanoleuca in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lichenostomus melanops in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Lichmera indistincta in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Limnodynastes dumerilii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Limnodynastes peronii in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Limnodynastes tasmaniensis in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria caerulea in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria gracilenta in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, Litoria inermis in it's natural habitat</t>
-  </si>
-  <si>
     <t>Please generate a short species bio with some interesting facts about  Conopophila albogularis.</t>
   </si>
   <si>
@@ -742,72 +613,6 @@
   </si>
   <si>
     <t>Please generate a short species bio with some interesting facts about  GryllotalpidaeÂ sp..</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Gymnorhina tibicen.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Haliastur sphenurus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Henicopsaltria eydouxii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Heteroscenes pallidus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Hieraaetus morphnoides.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Himantopus himantopus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Hirundo neoxena.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Hylacola pyrrhopygia.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Irediparra gallinacea.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Iridomyrmex purpureus.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lalage leucomela.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lalage tricolor.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lathamus discolor.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Leucosarcia melanoleuca.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lichenostomus melanops.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Lichmera indistincta.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Limnodynastes dumerilii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Limnodynastes peronii.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Limnodynastes tasmaniensis.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria caerulea.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria gracilenta.</t>
-  </si>
-  <si>
-    <t>Please generate a short species bio with some interesting facts about  Litoria inermis.</t>
   </si>
   <si>
     <t>Common Name</t>
@@ -1578,6 +1383,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="bio_master_D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Gymnorhina tibicen</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Haliastur sphenurus</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Henicopsaltria eydouxii</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Heteroscenes pallidus</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Hieraaetus morphnoides</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Himantopus himantopus</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Hirundo neoxena</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Hylacola pyrrhopygia</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Irediparra gallinacea</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Iridomyrmex purpureus</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Lalage leucomela</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Lalage tricolor</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Lathamus discolor</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Leucosarcia melanoleuca</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Lichenostomus melanops</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Lichmera indistincta</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Limnodynastes dumerilii</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Limnodynastes peronii</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Limnodynastes tasmaniensis</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Litoria caerulea</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Litoria gracilenta</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Litoria inermis</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1880,8 +1812,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A62:J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1909,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -1942,10 +1874,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L2" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
@@ -1961,10 +1893,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L3" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
@@ -1980,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="L4" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
@@ -1999,10 +1931,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="L5" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
@@ -2018,10 +1950,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="L6" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
@@ -2037,10 +1969,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="L7" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
@@ -2056,10 +1988,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="L8" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
@@ -2075,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="L9" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
@@ -2094,10 +2026,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
@@ -2113,10 +2045,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="L11" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
@@ -2132,10 +2064,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>7</v>
@@ -2154,10 +2086,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="L13" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
@@ -2173,10 +2105,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="L14" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
@@ -2192,10 +2124,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="L15" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
@@ -2211,10 +2143,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="L16" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
@@ -2230,10 +2162,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L17" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
@@ -2249,10 +2181,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="L18" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
@@ -2268,10 +2200,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="L19" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
@@ -2287,10 +2219,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="L20" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
@@ -2306,10 +2238,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="L21" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
@@ -2325,10 +2257,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>7</v>
@@ -2347,10 +2279,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="L23" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
@@ -2366,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="L24" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
@@ -2385,10 +2317,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="L25" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
@@ -2404,10 +2336,10 @@
         <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L26" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
@@ -2423,10 +2355,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="L27" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
@@ -2442,10 +2374,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="L28" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
@@ -2461,10 +2393,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L29" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
@@ -2480,10 +2412,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="L30" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
@@ -2499,10 +2431,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L31" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
@@ -2518,10 +2450,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="L32" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
@@ -2537,10 +2469,10 @@
         <v>39</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="L33" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
@@ -2556,10 +2488,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>7</v>
@@ -2578,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="L35" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
@@ -2597,10 +2529,10 @@
         <v>42</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="L36" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
@@ -2616,10 +2548,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="L37" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
@@ -2635,10 +2567,10 @@
         <v>44</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L38" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
@@ -2654,10 +2586,10 @@
         <v>45</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="L39" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
@@ -2673,10 +2605,10 @@
         <v>46</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="L40" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
@@ -2692,10 +2624,10 @@
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="L41" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
@@ -2711,10 +2643,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="L42" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
@@ -2730,10 +2662,10 @@
         <v>49</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="L43" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
@@ -2749,10 +2681,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>7</v>
@@ -2771,10 +2703,10 @@
         <v>51</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="L45" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
@@ -2790,10 +2722,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="L46" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
@@ -2809,10 +2741,10 @@
         <v>53</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="L47" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
@@ -2828,10 +2760,10 @@
         <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="L48" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
@@ -2847,10 +2779,10 @@
         <v>55</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="L49" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
@@ -2866,10 +2798,10 @@
         <v>56</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="L50" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
@@ -2885,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="L51" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
@@ -2904,10 +2836,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="L52" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
@@ -2923,10 +2855,10 @@
         <v>59</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="L53" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
@@ -2942,10 +2874,10 @@
         <v>60</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="L54" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
@@ -2961,10 +2893,10 @@
         <v>61</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="L55" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
@@ -2980,10 +2912,10 @@
         <v>62</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="L56" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
@@ -2999,10 +2931,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="L57" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
@@ -3018,10 +2950,10 @@
         <v>64</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="L58" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
@@ -3037,10 +2969,10 @@
         <v>65</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L59" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
@@ -3056,10 +2988,10 @@
         <v>66</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="L60" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
@@ -3075,10 +3007,10 @@
         <v>67</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L61" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
@@ -3090,420 +3022,222 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="L62" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A24,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O62" t="e">
-        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A24,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="L63" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A25,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O63" t="e">
-        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A25,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="L64" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A26,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O64" t="e">
-        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>155</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A26,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L65" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A27,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O65" t="e">
-        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>156</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A27,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L66" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A28,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O66" t="e">
-        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>157</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A28,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L67" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A29,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O67" t="e">
-        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>158</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A29,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L68" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A30,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O68" t="e">
-        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>159</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A30,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L69" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A31,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O69" t="e">
-        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>160</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A31,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L70" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A32,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O70" t="e">
-        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>161</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A32,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L71" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A33,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O71" t="e">
-        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>162</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A33,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L72" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A34,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O72" t="e">
-        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>163</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A34,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L73" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A35,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O73" t="e">
-        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>164</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A35,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L74" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A36,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O74" t="e">
-        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>165</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A36,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L75" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A37,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O75" t="e">
-        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>166</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A37,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L76" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A38,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O76" t="e">
-        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>167</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A38,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L77" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A39,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O77" t="e">
-        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>168</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A39,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L78" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A40,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O78" t="e">
-        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>169</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A40,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L79" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A41,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O79" t="e">
-        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>170</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A41,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L80" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A42,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O80" t="e">
-        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>171</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A42,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L81" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A43,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O81" t="e">
-        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>172</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A43,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L82" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A44,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O82" t="e">
-        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>173</v>
-      </c>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A44,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L83" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A45,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O83" t="e">
-        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A45,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/src/Prototypes/hmi/AI/bio_master_B.xlsx
+++ b/src/Prototypes/hmi/AI/bio_master_B.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo\Project-Echo\src\Prototypes\hmi\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo-HMI\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA8ED0A-4755-4393-9A07-0719FC949434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38B1DE-F6B8-4A0F-9CBC-D84C38B1B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2330" yWindow="3760" windowWidth="25520" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9320" yWindow="4270" windowWidth="24300" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_master_D" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
   <si>
     <t>Animal</t>
   </si>
@@ -249,6 +246,72 @@
     <t>GryllotalpidaeÂ sp.</t>
   </si>
   <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Haliastur sphenurus</t>
+  </si>
+  <si>
+    <t>Henicopsaltria eydouxii</t>
+  </si>
+  <si>
+    <t>Heteroscenes pallidus</t>
+  </si>
+  <si>
+    <t>Hieraaetus morphnoides</t>
+  </si>
+  <si>
+    <t>Himantopus himantopus</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>Hylacola pyrrhopygia</t>
+  </si>
+  <si>
+    <t>Irediparra gallinacea</t>
+  </si>
+  <si>
+    <t>Iridomyrmex purpureus</t>
+  </si>
+  <si>
+    <t>Lalage leucomela</t>
+  </si>
+  <si>
+    <t>Lalage tricolor</t>
+  </si>
+  <si>
+    <t>Lathamus discolor</t>
+  </si>
+  <si>
+    <t>Leucosarcia melanoleuca</t>
+  </si>
+  <si>
+    <t>Lichenostomus melanops</t>
+  </si>
+  <si>
+    <t>Lichmera indistincta</t>
+  </si>
+  <si>
+    <t>Limnodynastes dumerilii</t>
+  </si>
+  <si>
+    <t>Limnodynastes peronii</t>
+  </si>
+  <si>
+    <t>Limnodynastes tasmaniensis</t>
+  </si>
+  <si>
+    <t>Litoria caerulea</t>
+  </si>
+  <si>
+    <t>Litoria gracilenta</t>
+  </si>
+  <si>
+    <t>Litoria inermis</t>
+  </si>
+  <si>
     <t>Bio Prompt</t>
   </si>
   <si>
@@ -435,6 +498,72 @@
     <t>A photo realistic images of the animal, GryllotalpidaeÂ sp. in it's natural habitat</t>
   </si>
   <si>
+    <t>A photo realistic images of the animal, Gymnorhina tibicen in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Haliastur sphenurus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Henicopsaltria eydouxii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Heteroscenes pallidus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Hieraaetus morphnoides in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Himantopus himantopus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Hirundo neoxena in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Hylacola pyrrhopygia in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Irediparra gallinacea in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Iridomyrmex purpureus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lalage leucomela in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lalage tricolor in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lathamus discolor in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Leucosarcia melanoleuca in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lichenostomus melanops in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Lichmera indistincta in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Limnodynastes dumerilii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Limnodynastes peronii in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Limnodynastes tasmaniensis in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria caerulea in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria gracilenta in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Litoria inermis in it's natural habitat</t>
+  </si>
+  <si>
     <t>Please generate a short species bio with some interesting facts about  Conopophila albogularis.</t>
   </si>
   <si>
@@ -613,6 +742,72 @@
   </si>
   <si>
     <t>Please generate a short species bio with some interesting facts about  GryllotalpidaeÂ sp..</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Gymnorhina tibicen.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Haliastur sphenurus.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Henicopsaltria eydouxii.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Heteroscenes pallidus.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Hieraaetus morphnoides.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Himantopus himantopus.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Hirundo neoxena.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Hylacola pyrrhopygia.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Irediparra gallinacea.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Iridomyrmex purpureus.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lalage leucomela.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lalage tricolor.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lathamus discolor.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Leucosarcia melanoleuca.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lichenostomus melanops.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Lichmera indistincta.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Limnodynastes dumerilii.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Limnodynastes peronii.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Limnodynastes tasmaniensis.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria caerulea.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria gracilenta.</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Litoria inermis.</t>
   </si>
   <si>
     <t>Common Name</t>
@@ -1385,133 +1580,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="bio_master_D"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Gymnorhina tibicen</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Haliastur sphenurus</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Henicopsaltria eydouxii</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Heteroscenes pallidus</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Hieraaetus morphnoides</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Himantopus himantopus</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Hirundo neoxena</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Hylacola pyrrhopygia</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Irediparra gallinacea</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Iridomyrmex purpureus</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Lalage leucomela</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Lalage tricolor</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Lathamus discolor</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Leucosarcia melanoleuca</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Lichenostomus melanops</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Lichmera indistincta</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Limnodynastes dumerilii</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Limnodynastes peronii</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Limnodynastes tasmaniensis</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Litoria caerulea</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Litoria gracilenta</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Litoria inermis</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1812,8 +1880,8 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A62:J83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1841,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -1874,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L2" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
@@ -1893,10 +1961,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L3" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
@@ -1912,10 +1980,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
@@ -1931,10 +1999,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="L5" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
@@ -1950,10 +2018,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="L6" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
@@ -1969,10 +2037,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="L7" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
@@ -1988,10 +2056,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L8" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
@@ -2007,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="L9" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
@@ -2026,10 +2094,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L10" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
@@ -2045,10 +2113,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L11" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
@@ -2064,10 +2132,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>7</v>
@@ -2086,10 +2154,10 @@
         <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="L13" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
@@ -2105,10 +2173,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="L14" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
@@ -2124,10 +2192,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L15" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
@@ -2143,10 +2211,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="L16" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
@@ -2162,10 +2230,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="L17" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
@@ -2181,10 +2249,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="L18" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
@@ -2200,10 +2268,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="L19" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
@@ -2219,10 +2287,10 @@
         <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="L20" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
@@ -2238,10 +2306,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L21" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
@@ -2257,10 +2325,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>7</v>
@@ -2279,10 +2347,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="L23" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
@@ -2298,10 +2366,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L24" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
@@ -2317,10 +2385,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="L25" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
@@ -2336,10 +2404,10 @@
         <v>32</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="L26" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
@@ -2355,10 +2423,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="L27" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
@@ -2374,10 +2442,10 @@
         <v>34</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="L28" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
@@ -2393,10 +2461,10 @@
         <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L29" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
@@ -2412,10 +2480,10 @@
         <v>36</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="L30" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
@@ -2431,10 +2499,10 @@
         <v>37</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L31" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
@@ -2450,10 +2518,10 @@
         <v>38</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="L32" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
@@ -2469,10 +2537,10 @@
         <v>39</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="L33" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
@@ -2488,10 +2556,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>7</v>
@@ -2510,10 +2578,10 @@
         <v>41</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="L35" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
@@ -2529,10 +2597,10 @@
         <v>42</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="L36" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
@@ -2548,10 +2616,10 @@
         <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L37" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
@@ -2567,10 +2635,10 @@
         <v>44</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L38" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
@@ -2586,10 +2654,10 @@
         <v>45</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="L39" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
@@ -2605,10 +2673,10 @@
         <v>46</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L40" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
@@ -2624,10 +2692,10 @@
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="L41" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
@@ -2643,10 +2711,10 @@
         <v>48</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L42" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
@@ -2662,10 +2730,10 @@
         <v>49</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L43" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
@@ -2681,10 +2749,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>7</v>
@@ -2703,10 +2771,10 @@
         <v>51</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L45" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
@@ -2722,10 +2790,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="L46" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
@@ -2741,10 +2809,10 @@
         <v>53</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="L47" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
@@ -2760,10 +2828,10 @@
         <v>54</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L48" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
@@ -2779,10 +2847,10 @@
         <v>55</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="L49" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
@@ -2798,10 +2866,10 @@
         <v>56</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="L50" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
@@ -2817,10 +2885,10 @@
         <v>57</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="L51" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
@@ -2836,10 +2904,10 @@
         <v>58</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L52" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
@@ -2855,10 +2923,10 @@
         <v>59</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L53" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
@@ -2874,10 +2942,10 @@
         <v>60</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="L54" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
@@ -2893,10 +2961,10 @@
         <v>61</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="L55" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
@@ -2912,10 +2980,10 @@
         <v>62</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="L56" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
@@ -2931,10 +2999,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="L57" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
@@ -2950,10 +3018,10 @@
         <v>64</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="L58" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
@@ -2969,10 +3037,10 @@
         <v>65</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L59" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
@@ -2988,10 +3056,10 @@
         <v>66</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="L60" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
@@ -3007,10 +3075,10 @@
         <v>67</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="L61" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
@@ -3022,222 +3090,420 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="L62" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A24,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O62" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A24,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="L63" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A25,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O63" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A25,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="L64" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A26,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O64" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A26,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="L65" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A27,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O65" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A27,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="L66" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A28,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O66" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A28,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="L67" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A29,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O67" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A29,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>158</v>
+      </c>
       <c r="L68" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A30,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O68" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A30,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="L69" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A31,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O69" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A31,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="L70" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A32,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O70" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A32,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="L71" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A33,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O71" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A33,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="L72" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A34,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O72" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A34,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="L73" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A35,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O73" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A35,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="L74" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A36,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O74" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A36,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="L75" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A37,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O75" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A37,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="L76" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A38,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O76" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A38,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="L77" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A39,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O77" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A39,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="L78" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A40,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O78" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A40,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="L79" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A41,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O79" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A41,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="L80" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A42,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O80" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A42,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="L81" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A43,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O81" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A43,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="L82" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A44,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O82" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A44,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="12:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="L83" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A45,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="O83" t="e">
-        <f>_xlfn.CONCAT(#REF!,[1]bio_master_D!A45,#REF!)</f>
+        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
